--- a/docs/용역자명단.xlsx
+++ b/docs/용역자명단.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Bill\MLM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Bill\MLM\dev3\nanumpay\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95D3C50-46C5-4B7A-B8A5-229C4E266945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DBB340-1D3A-4473-A304-FDFBE01AC76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="810" windowWidth="19875" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="용역자관리명부" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강길동1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장길상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +162,57 @@
   </si>
   <si>
     <t>345-546-123459</t>
+  </si>
+  <si>
+    <t>010-1234-1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1234-1234</t>
+  </si>
+  <si>
+    <t>지사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -658,10 +705,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -684,7 +731,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -740,7 +787,9 @@
       <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="N2" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -752,7 +801,9 @@
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
@@ -763,22 +814,26 @@
         <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="12"/>
+      <c r="N3" s="12" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -789,33 +844,41 @@
         <v>45905</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -826,33 +889,41 @@
         <v>45905</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -862,22 +933,42 @@
       <c r="B6" s="10">
         <v>45905</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -887,22 +978,42 @@
       <c r="B7" s="10">
         <v>45905</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -912,22 +1023,45 @@
       <c r="B8" s="10">
         <v>45905</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="12"/>
+      <c r="J8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
